--- a/Aerodynamics/Aerodynamic parameters.xlsx
+++ b/Aerodynamics/Aerodynamic parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tbeja\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F761D7-07A5-481C-893E-A5B47D5FD6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F412B957-EE6A-4420-91DD-AC959DB5A172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Parameter</t>
   </si>
@@ -52,6 +52,15 @@
     <t>Value</t>
   </si>
   <si>
+    <t>m_tot</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
     <t>m/s</t>
   </si>
   <si>
@@ -122,6 +131,42 @@
   </si>
   <si>
     <t>Outputs</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>g0</t>
+  </si>
+  <si>
+    <t>m/s2</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>K.Viscosity</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>m2/s</t>
+  </si>
+  <si>
+    <t>Total mass</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>V_wind</t>
   </si>
 </sst>
 </file>
@@ -172,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -181,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +510,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,27 +534,27 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -516,13 +562,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>83</v>
@@ -530,13 +576,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>1.6</v>
@@ -544,13 +590,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>0.92</v>
@@ -558,13 +604,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>1.0999999999999999E-2</v>
@@ -572,13 +618,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>-0.16</v>
@@ -586,31 +632,101 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
         <v>0.11</v>
       </c>
     </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.8066499999999994</v>
+      </c>
+    </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.2250000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.4800000000000001E-5</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7.08</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.8</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -653,47 +769,47 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -713,13 +829,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
